--- a/tester/tools/test_C/test_list.xlsx
+++ b/tester/tools/test_C/test_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="505" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="504" uniqueCount="504">
   <si>
     <t>competitionName</t>
   </si>
@@ -1280,18 +1280,15 @@
     <t>异乡人</t>
   </si>
   <si>
-    <t>docker.io/zsn123/zsn20230602jiaochakousai:0.0.1</t>
+    <t>docker.io/zsn123/zsn20230531:0.0.1</t>
+  </si>
+  <si>
+    <t>94.6135</t>
   </si>
   <si>
     <t>18084051520</t>
   </si>
   <si>
-    <t>docker.io/zsn123/zsn20230531:0.0.1</t>
-  </si>
-  <si>
-    <t>94.6135</t>
-  </si>
-  <si>
     <t>s_20230531173034_20230323102228</t>
   </si>
   <si>
@@ -1352,6 +1349,9 @@
     <t>s_20230524203218_20230430112723</t>
   </si>
   <si>
+    <t>yangliu123123/skhfgiewbw2i4ht982bf2final20:0.0.1</t>
+  </si>
+  <si>
     <t>92.064</t>
   </si>
   <si>
@@ -1472,18 +1472,18 @@
     <t>s_20230530181009_20230321054337</t>
   </si>
   <si>
-    <t>docker.io/zsn123/zsn20230602zonghesai:0.0.1</t>
-  </si>
-  <si>
     <t>FF_T</t>
   </si>
   <si>
+    <t>docker.io/tffff/0526version:0.0.1</t>
+  </si>
+  <si>
+    <t>92.6397</t>
+  </si>
+  <si>
     <t>13618600582</t>
   </si>
   <si>
-    <t>docker.io/tffff/0526version:0.0.1</t>
-  </si>
-  <si>
     <t>s_20230530203925_20230323100625</t>
   </si>
   <si>
@@ -1500,9 +1500,6 @@
   </si>
   <si>
     <t>s_20230530211041_20230329093332</t>
-  </si>
-  <si>
-    <t>92.6397</t>
   </si>
   <si>
     <r>
@@ -1840,7 +1837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" horizontal="center" vertical="top"/>
@@ -1917,9 +1914,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment wrapText="false" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
@@ -1931,7 +1925,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2244,31 +2238,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>1</v>
@@ -5785,11 +5779,11 @@
       <c r="D80" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="F80" s="26" t="n">
-        <v>92.9369</v>
+      <c r="F80" s="17" t="s">
+        <v>423</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>15</v>
@@ -5803,20 +5797,20 @@
         <v>421</v>
       </c>
       <c r="L80" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="N80" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="O80" s="7" t="n">
         <v>45077.7295717593</v>
       </c>
       <c r="P80" s="4"/>
       <c r="Q80" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R80" s="4"/>
     </row>
@@ -5830,7 +5824,7 @@
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="20"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
@@ -5838,23 +5832,23 @@
         <v>255</v>
       </c>
       <c r="K81" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="L81" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="M81" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="N81" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="O81" s="7" t="n">
         <v>45077.6650231481</v>
       </c>
       <c r="P81" s="4"/>
       <c r="Q81" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R81" s="4"/>
     </row>
@@ -5862,181 +5856,171 @@
       <c r="A82" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="G82" s="16" t="s">
+      <c r="B82" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F82" s="21" t="n">
+        <v>65.1097</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="J82" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="L82" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="M82" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="N82" s="21"/>
+      <c r="O82" s="7" t="n">
+        <v>45077.7914236111</v>
+      </c>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="R82" s="21"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="O83" s="13" t="n">
+        <v>45070.855775463</v>
+      </c>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="R83" s="9"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="F84" s="21" t="n">
+        <v>91.9783</v>
+      </c>
+      <c r="G84" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="O82" s="7" t="n">
-        <v>45077.7295717593</v>
-      </c>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="R82" s="4"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="F83" s="21" t="n">
-        <v>65.1097</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="J83" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="K83" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="L83" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="M83" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="N83" s="21"/>
-      <c r="O83" s="7" t="n">
-        <v>45077.7914236111</v>
-      </c>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="R83" s="21"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K84" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="M84" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="N84" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="O84" s="13" t="n">
-        <v>45070.855775463</v>
-      </c>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="R84" s="9"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="O84" s="7" t="n">
+        <v>45077.9957407407</v>
+      </c>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="R84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="18"/>
+        <v>431</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
       <c r="J85" s="4" t="s">
         <v>371</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O85" s="7" t="n">
-        <v>45077.9957407407</v>
+        <v>45077.9994444445</v>
       </c>
       <c r="P85" s="4"/>
       <c r="Q85" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="R85" s="4"/>
     </row>
@@ -6045,36 +6029,46 @@
         <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+        <v>431</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F86" s="19" t="n">
+        <v>79.3091</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="4" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="O86" s="7" t="n">
-        <v>45077.9994444445</v>
+        <v>45075.8847106481</v>
       </c>
       <c r="P86" s="4"/>
       <c r="Q86" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="R86" s="4"/>
     </row>
@@ -6083,19 +6077,19 @@
         <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>381</v>
+        <v>431</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F87" s="19" t="n">
-        <v>79.3091</v>
+        <v>245</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>15</v>
@@ -6103,196 +6097,186 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>382</v>
+        <v>245</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>385</v>
+        <v>249</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>450</v>
+        <v>246</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O87" s="7" t="n">
-        <v>45075.8847106481</v>
+        <v>45077.4470949074</v>
       </c>
       <c r="P87" s="4"/>
       <c r="Q87" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="R87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="O88" s="7" t="n">
-        <v>45077.4470949074</v>
-      </c>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="R88" s="4"/>
+      <c r="A88" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="N88" s="9"/>
+      <c r="O88" s="13" t="n">
+        <v>45041.6820833333</v>
+      </c>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="R88" s="9"/>
     </row>
     <row r="89">
       <c r="A89" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
+        <v>431</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
       <c r="J89" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>455</v>
+        <v>125</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>456</v>
+        <v>128</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>457</v>
+        <v>126</v>
       </c>
       <c r="N89" s="9"/>
       <c r="O89" s="13" t="n">
-        <v>45041.6820833333</v>
+        <v>45044.0341782407</v>
       </c>
       <c r="P89" s="9"/>
       <c r="Q89" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="R89" s="9"/>
     </row>
     <row r="90">
-      <c r="A90" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K90" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L90" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M90" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="N90" s="9"/>
-      <c r="O90" s="13" t="n">
-        <v>45044.0341782407</v>
-      </c>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="R90" s="9"/>
+      <c r="A90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="O90" s="7" t="n">
+        <v>45077.7953703704</v>
+      </c>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="R90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
+        <v>431</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
       <c r="J91" s="4" t="s">
         <v>397</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="O91" s="7" t="n">
-        <v>45077.7953703704</v>
+        <v>45071.6677083333</v>
       </c>
       <c r="P91" s="4"/>
       <c r="Q91" s="4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="R91" s="4"/>
     </row>
@@ -6301,36 +6285,44 @@
         <v>9</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+        <v>431</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="4" t="s">
-        <v>397</v>
+        <v>23</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>463</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N92" s="4"/>
       <c r="O92" s="7" t="n">
-        <v>45071.6677083333</v>
+        <v>45061.6213541667</v>
       </c>
       <c r="P92" s="4"/>
       <c r="Q92" s="4" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="R92" s="4"/>
     </row>
@@ -6339,44 +6331,36 @@
         <v>9</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
+        <v>431</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
       <c r="J93" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>467</v>
+        <v>309</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>468</v>
+        <v>310</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="N93" s="4"/>
+        <v>465</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="O93" s="7" t="n">
-        <v>45061.6213541667</v>
+        <v>45076.4754861111</v>
       </c>
       <c r="P93" s="4"/>
       <c r="Q93" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R93" s="4"/>
     </row>
@@ -6385,36 +6369,34 @@
         <v>9</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
+        <v>431</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
       <c r="J94" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>309</v>
+        <v>472</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>310</v>
+        <v>473</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>466</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N94" s="4"/>
       <c r="O94" s="7" t="n">
-        <v>45076.4754861111</v>
+        <v>45053.8377083333</v>
       </c>
       <c r="P94" s="4"/>
       <c r="Q94" s="4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="R94" s="4"/>
     </row>
@@ -6423,34 +6405,46 @@
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
+        <v>431</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="4" t="s">
-        <v>23</v>
+        <v>371</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>472</v>
+        <v>406</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>473</v>
+        <v>409</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="N95" s="4"/>
+        <v>476</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="O95" s="7" t="n">
-        <v>45053.8377083333</v>
+        <v>45077.9196527778</v>
       </c>
       <c r="P95" s="4"/>
       <c r="Q95" s="4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="R95" s="4"/>
     </row>
@@ -6459,19 +6453,19 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>405</v>
+        <v>431</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>313</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>477</v>
+        <v>314</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="F96" s="21" t="n">
+        <v>67.406</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>15</v>
@@ -6479,26 +6473,26 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4" t="s">
-        <v>371</v>
+        <v>16</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>409</v>
+        <v>316</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="O96" s="7" t="n">
-        <v>45077.9196527778</v>
+        <v>45075.7097222222</v>
       </c>
       <c r="P96" s="4"/>
       <c r="Q96" s="4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="R96" s="4"/>
     </row>
@@ -6507,19 +6501,19 @@
         <v>9</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>313</v>
+        <v>431</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="F97" s="21" t="n">
-        <v>67.406</v>
+        <v>331</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>15</v>
@@ -6527,26 +6521,26 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="O97" s="7" t="n">
-        <v>45075.7097222222</v>
+        <v>45076.7570601852</v>
       </c>
       <c r="P97" s="4"/>
       <c r="Q97" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="R97" s="4"/>
     </row>
@@ -6555,46 +6549,46 @@
         <v>9</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="G98" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="G98" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="18"/>
       <c r="J98" s="4" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>331</v>
+        <v>486</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>335</v>
+        <v>489</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="N98" s="4" t="s">
-        <v>484</v>
+        <v>487</v>
+      </c>
+      <c r="N98" s="21" t="n">
+        <v>92.6397</v>
       </c>
       <c r="O98" s="7" t="n">
-        <v>45076.7570601852</v>
+        <v>45076.8607060185</v>
       </c>
       <c r="P98" s="4"/>
       <c r="Q98" s="4" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="R98" s="4"/>
     </row>
@@ -6603,46 +6597,36 @@
         <v>9</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="F99" s="26" t="n">
-        <v>81.497</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="18"/>
+        <v>431</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
       <c r="J99" s="4" t="s">
         <v>255</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>488</v>
+        <v>424</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="N99" s="21" t="n">
-        <v>92.6397</v>
+        <v>491</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="O99" s="7" t="n">
-        <v>45076.8607060185</v>
+        <v>45073.5649421296</v>
       </c>
       <c r="P99" s="4"/>
       <c r="Q99" s="4" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="R99" s="4"/>
     </row>
@@ -6651,121 +6635,75 @@
         <v>9</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
+        <v>431</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
       <c r="J100" s="4" t="s">
         <v>255</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>492</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N100" s="4"/>
       <c r="O100" s="7" t="n">
-        <v>45073.5649421296</v>
+        <v>45076.8824305556</v>
       </c>
       <c r="P100" s="4"/>
       <c r="Q100" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="R100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="M101" s="4" t="s">
-        <v>494</v>
-      </c>
+      <c r="A101" s="5"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
       <c r="N101" s="4"/>
-      <c r="O101" s="7" t="n">
-        <v>45076.8824305556</v>
-      </c>
+      <c r="O101" s="4"/>
       <c r="P101" s="4"/>
-      <c r="Q101" s="4" t="s">
-        <v>495</v>
-      </c>
+      <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="O102" s="7" t="n">
-        <v>45076.8607060185</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
       <c r="P102" s="4"/>
-      <c r="Q102" s="4" t="s">
-        <v>490</v>
-      </c>
+      <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
     <row r="103">
@@ -8727,46 +8665,6 @@
       <c r="P200" s="4"/>
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="5"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-      <c r="R201" s="4"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="5"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="4"/>
-      <c r="H202" s="4"/>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="4"/>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-      <c r="P202" s="4"/>
-      <c r="Q202" s="4"/>
-      <c r="R202" s="4"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -8883,47 +8781,47 @@
     <mergeCell ref="H75:H76"/>
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="G99:G101"/>
-    <mergeCell ref="H99:H101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="G98:G100"/>
+    <mergeCell ref="I98:I100"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="A2:A202">
+    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="A2:A200">
       <formula1>"未确认,已确认,没有分"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="G2:G3 G5 G7 G9:G13 G15:G17 G20:G22 G24:G26 G28 G30:G32 G34:G35 G38 G41:G47 G50:G59 G61:G69 G71:G75 G77:G80 G82:G85 G87:G89 G91 G93 G96:G99 G102">
+    <dataValidation type="list" errorStyle="warning" allowBlank="true" showDropDown="false" showInputMessage="false" showErrorMessage="true" promptTitle="提示" prompt="您选择的不是下拉列表中的选项" sqref="G2:G3 G5 G7 G9:G13 G15:G17 G20:G22 G24:G26 G28 G30:G32 G34:G35 G38 G41:G47 G50:G59 G61:G69 G71:G75 G77:G80 G82:G84 G86:G88 G90 G92 G95:G98">
       <formula1>"已测试,未测试"</formula1>
     </dataValidation>
   </dataValidations>
